--- a/simulation/shock.xlsx
+++ b/simulation/shock.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="matrix" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="22">
   <si>
     <t>Final uses</t>
   </si>
@@ -42,21 +42,9 @@
     <t>Services</t>
   </si>
   <si>
-    <t>Final consumption expenditure</t>
-  </si>
-  <si>
-    <t>Gross capital formation</t>
-  </si>
-  <si>
     <t>Products</t>
   </si>
   <si>
-    <t>FC</t>
-  </si>
-  <si>
-    <t>GCF</t>
-  </si>
-  <si>
     <t>Products of agriculture, hunting and fishing</t>
   </si>
   <si>
@@ -91,6 +79,9 @@
   </si>
   <si>
     <t>Value</t>
+  </si>
+  <si>
+    <t>FU</t>
   </si>
 </sst>
 </file>
@@ -140,7 +131,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -158,19 +149,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="hair">
         <color auto="1"/>
       </left>
@@ -328,47 +306,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -379,11 +335,30 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -685,390 +660,306 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:K18"/>
+  <dimension ref="A3:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" customWidth="1"/>
-    <col min="5" max="11" width="10" customWidth="1"/>
+    <col min="5" max="9" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E3" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8" t="s">
+      <c r="D4" s="23"/>
+      <c r="E4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="8" t="s">
+      <c r="F4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="C5" s="22"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="17"/>
+      <c r="C6" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="8" t="s">
+      <c r="D6" s="25"/>
+      <c r="E6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="18"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="D7" s="27"/>
+      <c r="E7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="11" t="s">
+      <c r="D8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="16">
+      <c r="E8" s="8">
         <v>100</v>
       </c>
-      <c r="F8" s="16">
-        <v>0</v>
-      </c>
-      <c r="G8" s="17">
-        <v>0</v>
-      </c>
-      <c r="H8" s="17">
-        <v>0</v>
-      </c>
-      <c r="J8" s="28" t="str">
+      <c r="F8" s="9">
+        <v>0</v>
+      </c>
+      <c r="H8" s="15" t="str">
         <f>B8&amp;D8</f>
         <v>EU27P1</v>
       </c>
-      <c r="K8" s="18"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="B9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0</v>
+      </c>
+      <c r="H9" s="15" t="str">
+        <f>B9&amp;D9</f>
+        <v>EU27P2</v>
+      </c>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0</v>
+      </c>
+      <c r="H10" s="15" t="str">
+        <f>B10&amp;D10</f>
+        <v>EU27P3</v>
+      </c>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="20">
-        <v>0</v>
-      </c>
-      <c r="F9" s="20">
-        <v>0</v>
-      </c>
-      <c r="G9" s="21">
-        <v>0</v>
-      </c>
-      <c r="H9" s="21">
-        <v>0</v>
-      </c>
-      <c r="J9" s="28" t="str">
-        <f t="shared" ref="J9:J15" si="0">B9&amp;D9</f>
-        <v>EU27P2</v>
-      </c>
-      <c r="K9" s="18"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="20">
-        <v>0</v>
-      </c>
-      <c r="F10" s="20">
-        <v>0</v>
-      </c>
-      <c r="G10" s="21">
-        <v>0</v>
-      </c>
-      <c r="H10" s="21">
-        <v>0</v>
-      </c>
-      <c r="J10" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v>EU27P3</v>
-      </c>
-      <c r="K10" s="18"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="8" t="s">
+      <c r="E11" s="12">
+        <v>0</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0</v>
+      </c>
+      <c r="H11" s="15" t="str">
+        <f>B11&amp;D11</f>
+        <v>EU27P4</v>
+      </c>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="13">
+        <v>50</v>
+      </c>
+      <c r="F12" s="12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="15" t="str">
+        <f>B12&amp;D12</f>
+        <v>USP1</v>
+      </c>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="12">
+        <v>0</v>
+      </c>
+      <c r="H13" s="15" t="str">
+        <f>B13&amp;D13</f>
+        <v>USP2</v>
+      </c>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0</v>
+      </c>
+      <c r="F14" s="12">
+        <v>0</v>
+      </c>
+      <c r="H14" s="15" t="str">
+        <f>B14&amp;D14</f>
+        <v>USP3</v>
+      </c>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="20">
-        <v>0</v>
-      </c>
-      <c r="F11" s="20">
-        <v>0</v>
-      </c>
-      <c r="G11" s="21">
-        <v>0</v>
-      </c>
-      <c r="H11" s="21">
-        <v>0</v>
-      </c>
-      <c r="J11" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v>EU27P4</v>
-      </c>
-      <c r="K11" s="18"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="21">
-        <v>50</v>
-      </c>
-      <c r="F12" s="21">
-        <v>0</v>
-      </c>
-      <c r="G12" s="20">
-        <v>0</v>
-      </c>
-      <c r="H12" s="20">
-        <v>0</v>
-      </c>
-      <c r="J12" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v>USP1</v>
-      </c>
-      <c r="K12" s="18"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="8" t="s">
+      <c r="D15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="21">
-        <v>0</v>
-      </c>
-      <c r="F13" s="21">
-        <v>0</v>
-      </c>
-      <c r="G13" s="20">
-        <v>0</v>
-      </c>
-      <c r="H13" s="20">
-        <v>0</v>
-      </c>
-      <c r="J13" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v>USP2</v>
-      </c>
-      <c r="K13" s="18"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="21">
-        <v>0</v>
-      </c>
-      <c r="F14" s="21">
-        <v>0</v>
-      </c>
-      <c r="G14" s="20">
-        <v>0</v>
-      </c>
-      <c r="H14" s="20">
-        <v>0</v>
-      </c>
-      <c r="J14" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v>USP3</v>
-      </c>
-      <c r="K14" s="18"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="21">
-        <v>0</v>
-      </c>
-      <c r="F15" s="21">
-        <v>0</v>
-      </c>
-      <c r="G15" s="20">
-        <v>0</v>
-      </c>
-      <c r="H15" s="20">
-        <v>0</v>
-      </c>
-      <c r="J15" s="28" t="str">
-        <f t="shared" si="0"/>
+      <c r="E15" s="13">
+        <v>0</v>
+      </c>
+      <c r="F15" s="12">
+        <v>0</v>
+      </c>
+      <c r="H15" s="15" t="str">
+        <f>B15&amp;D15</f>
         <v>USP4</v>
       </c>
-      <c r="K15" s="18"/>
-    </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E17" s="27" t="str">
+      <c r="I15" s="10"/>
+    </row>
+    <row r="17" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E17" s="14" t="str">
         <f>E5&amp;E7</f>
-        <v>EU27FC</v>
-      </c>
-      <c r="F17" s="27" t="str">
-        <f t="shared" ref="F17:H17" si="1">F5&amp;F7</f>
-        <v>EU27GCF</v>
-      </c>
-      <c r="G17" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>USFC</v>
-      </c>
-      <c r="H17" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>USGCF</v>
-      </c>
-    </row>
-    <row r="18" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
+        <v>EU27FU</v>
+      </c>
+      <c r="F17" s="14" t="str">
+        <f t="shared" ref="F17" si="0">F5&amp;F7</f>
+        <v>USFU</v>
+      </c>
+    </row>
+    <row r="18" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A6:B7"/>
-    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E3:F3"/>
     <mergeCell ref="C4:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
@@ -1079,29 +970,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
         <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1109,16 +1000,16 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <f ca="1">OFFSET(matrix!$E$8,MATCH(long!A2&amp;long!B2,matrix!$J$8:$J$15,0)-1,MATCH(long!C2&amp;long!D2,matrix!$E$17:$H$17,0)-1)</f>
+        <f ca="1">OFFSET(matrix!$E$8,MATCH(long!A2&amp;long!B2,matrix!$H$8:$H$15,0)-1,MATCH(long!C2&amp;long!D2,matrix!$E$17:$F$17,0)-1)</f>
         <v>100</v>
       </c>
     </row>
@@ -1127,16 +1018,16 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <f ca="1">OFFSET(matrix!$E$8,MATCH(long!A3&amp;long!B3,matrix!$J$8:$J$15,0)-1,MATCH(long!C3&amp;long!D3,matrix!$E$17:$H$17,0)-1)</f>
+        <f ca="1">OFFSET(matrix!$E$8,MATCH(long!A3&amp;long!B3,matrix!$H$8:$H$15,0)-1,MATCH(long!C3&amp;long!D3,matrix!$E$17:$F$17,0)-1)</f>
         <v>0</v>
       </c>
     </row>
@@ -1145,16 +1036,16 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <f ca="1">OFFSET(matrix!$E$8,MATCH(long!A4&amp;long!B4,matrix!$J$8:$J$15,0)-1,MATCH(long!C4&amp;long!D4,matrix!$E$17:$H$17,0)-1)</f>
+        <f ca="1">OFFSET(matrix!$E$8,MATCH(long!A4&amp;long!B4,matrix!$H$8:$H$15,0)-1,MATCH(long!C4&amp;long!D4,matrix!$E$17:$F$17,0)-1)</f>
         <v>0</v>
       </c>
     </row>
@@ -1163,16 +1054,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <f ca="1">OFFSET(matrix!$E$8,MATCH(long!A5&amp;long!B5,matrix!$J$8:$J$15,0)-1,MATCH(long!C5&amp;long!D5,matrix!$E$17:$H$17,0)-1)</f>
+        <f ca="1">OFFSET(matrix!$E$8,MATCH(long!A5&amp;long!B5,matrix!$H$8:$H$15,0)-1,MATCH(long!C5&amp;long!D5,matrix!$E$17:$F$17,0)-1)</f>
         <v>0</v>
       </c>
     </row>
@@ -1181,16 +1072,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <f ca="1">OFFSET(matrix!$E$8,MATCH(long!A6&amp;long!B6,matrix!$J$8:$J$15,0)-1,MATCH(long!C6&amp;long!D6,matrix!$E$17:$H$17,0)-1)</f>
+        <f ca="1">OFFSET(matrix!$E$8,MATCH(long!A6&amp;long!B6,matrix!$H$8:$H$15,0)-1,MATCH(long!C6&amp;long!D6,matrix!$E$17:$F$17,0)-1)</f>
         <v>0</v>
       </c>
     </row>
@@ -1199,16 +1090,16 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <f ca="1">OFFSET(matrix!$E$8,MATCH(long!A7&amp;long!B7,matrix!$J$8:$J$15,0)-1,MATCH(long!C7&amp;long!D7,matrix!$E$17:$H$17,0)-1)</f>
+        <f ca="1">OFFSET(matrix!$E$8,MATCH(long!A7&amp;long!B7,matrix!$H$8:$H$15,0)-1,MATCH(long!C7&amp;long!D7,matrix!$E$17:$F$17,0)-1)</f>
         <v>0</v>
       </c>
     </row>
@@ -1217,16 +1108,16 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <f ca="1">OFFSET(matrix!$E$8,MATCH(long!A8&amp;long!B8,matrix!$J$8:$J$15,0)-1,MATCH(long!C8&amp;long!D8,matrix!$E$17:$H$17,0)-1)</f>
+        <f ca="1">OFFSET(matrix!$E$8,MATCH(long!A8&amp;long!B8,matrix!$H$8:$H$15,0)-1,MATCH(long!C8&amp;long!D8,matrix!$E$17:$F$17,0)-1)</f>
         <v>0</v>
       </c>
     </row>
@@ -1235,448 +1126,160 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <f ca="1">OFFSET(matrix!$E$8,MATCH(long!A9&amp;long!B9,matrix!$J$8:$J$15,0)-1,MATCH(long!C9&amp;long!D9,matrix!$E$17:$H$17,0)-1)</f>
+        <f ca="1">OFFSET(matrix!$E$8,MATCH(long!A9&amp;long!B9,matrix!$H$8:$H$15,0)-1,MATCH(long!C9&amp;long!D9,matrix!$E$17:$F$17,0)-1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <f ca="1">OFFSET(matrix!$E$8,MATCH(long!A10&amp;long!B10,matrix!$J$8:$J$15,0)-1,MATCH(long!C10&amp;long!D10,matrix!$E$17:$H$17,0)-1)</f>
-        <v>0</v>
+        <f ca="1">OFFSET(matrix!$E$8,MATCH(long!A10&amp;long!B10,matrix!$H$8:$H$15,0)-1,MATCH(long!C10&amp;long!D10,matrix!$E$17:$F$17,0)-1)</f>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <f ca="1">OFFSET(matrix!$E$8,MATCH(long!A11&amp;long!B11,matrix!$J$8:$J$15,0)-1,MATCH(long!C11&amp;long!D11,matrix!$E$17:$H$17,0)-1)</f>
+        <f ca="1">OFFSET(matrix!$E$8,MATCH(long!A11&amp;long!B11,matrix!$H$8:$H$15,0)-1,MATCH(long!C11&amp;long!D11,matrix!$E$17:$F$17,0)-1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <f ca="1">OFFSET(matrix!$E$8,MATCH(long!A12&amp;long!B12,matrix!$J$8:$J$15,0)-1,MATCH(long!C12&amp;long!D12,matrix!$E$17:$H$17,0)-1)</f>
+        <f ca="1">OFFSET(matrix!$E$8,MATCH(long!A12&amp;long!B12,matrix!$H$8:$H$15,0)-1,MATCH(long!C12&amp;long!D12,matrix!$E$17:$F$17,0)-1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <f ca="1">OFFSET(matrix!$E$8,MATCH(long!A13&amp;long!B13,matrix!$J$8:$J$15,0)-1,MATCH(long!C13&amp;long!D13,matrix!$E$17:$H$17,0)-1)</f>
+        <f ca="1">OFFSET(matrix!$E$8,MATCH(long!A13&amp;long!B13,matrix!$H$8:$H$15,0)-1,MATCH(long!C13&amp;long!D13,matrix!$E$17:$F$17,0)-1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E14">
-        <f ca="1">OFFSET(matrix!$E$8,MATCH(long!A14&amp;long!B14,matrix!$J$8:$J$15,0)-1,MATCH(long!C14&amp;long!D14,matrix!$E$17:$H$17,0)-1)</f>
+        <f ca="1">OFFSET(matrix!$E$8,MATCH(long!A14&amp;long!B14,matrix!$H$8:$H$15,0)-1,MATCH(long!C14&amp;long!D14,matrix!$E$17:$F$17,0)-1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <f ca="1">OFFSET(matrix!$E$8,MATCH(long!A15&amp;long!B15,matrix!$J$8:$J$15,0)-1,MATCH(long!C15&amp;long!D15,matrix!$E$17:$H$17,0)-1)</f>
+        <f ca="1">OFFSET(matrix!$E$8,MATCH(long!A15&amp;long!B15,matrix!$H$8:$H$15,0)-1,MATCH(long!C15&amp;long!D15,matrix!$E$17:$F$17,0)-1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E16">
-        <f ca="1">OFFSET(matrix!$E$8,MATCH(long!A16&amp;long!B16,matrix!$J$8:$J$15,0)-1,MATCH(long!C16&amp;long!D16,matrix!$E$17:$H$17,0)-1)</f>
+        <f ca="1">OFFSET(matrix!$E$8,MATCH(long!A16&amp;long!B16,matrix!$H$8:$H$15,0)-1,MATCH(long!C16&amp;long!D16,matrix!$E$17:$F$17,0)-1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E17">
-        <f ca="1">OFFSET(matrix!$E$8,MATCH(long!A17&amp;long!B17,matrix!$J$8:$J$15,0)-1,MATCH(long!C17&amp;long!D17,matrix!$E$17:$H$17,0)-1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18">
-        <f ca="1">OFFSET(matrix!$E$8,MATCH(long!A18&amp;long!B18,matrix!$J$8:$J$15,0)-1,MATCH(long!C18&amp;long!D18,matrix!$E$17:$H$17,0)-1)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19">
-        <f ca="1">OFFSET(matrix!$E$8,MATCH(long!A19&amp;long!B19,matrix!$J$8:$J$15,0)-1,MATCH(long!C19&amp;long!D19,matrix!$E$17:$H$17,0)-1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20">
-        <f ca="1">OFFSET(matrix!$E$8,MATCH(long!A20&amp;long!B20,matrix!$J$8:$J$15,0)-1,MATCH(long!C20&amp;long!D20,matrix!$E$17:$H$17,0)-1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21">
-        <f ca="1">OFFSET(matrix!$E$8,MATCH(long!A21&amp;long!B21,matrix!$J$8:$J$15,0)-1,MATCH(long!C21&amp;long!D21,matrix!$E$17:$H$17,0)-1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22">
-        <f ca="1">OFFSET(matrix!$E$8,MATCH(long!A22&amp;long!B22,matrix!$J$8:$J$15,0)-1,MATCH(long!C22&amp;long!D22,matrix!$E$17:$H$17,0)-1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23">
-        <f ca="1">OFFSET(matrix!$E$8,MATCH(long!A23&amp;long!B23,matrix!$J$8:$J$15,0)-1,MATCH(long!C23&amp;long!D23,matrix!$E$17:$H$17,0)-1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24">
-        <f ca="1">OFFSET(matrix!$E$8,MATCH(long!A24&amp;long!B24,matrix!$J$8:$J$15,0)-1,MATCH(long!C24&amp;long!D24,matrix!$E$17:$H$17,0)-1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25">
-        <f ca="1">OFFSET(matrix!$E$8,MATCH(long!A25&amp;long!B25,matrix!$J$8:$J$15,0)-1,MATCH(long!C25&amp;long!D25,matrix!$E$17:$H$17,0)-1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26">
-        <f ca="1">OFFSET(matrix!$E$8,MATCH(long!A26&amp;long!B26,matrix!$J$8:$J$15,0)-1,MATCH(long!C26&amp;long!D26,matrix!$E$17:$H$17,0)-1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27">
-        <f ca="1">OFFSET(matrix!$E$8,MATCH(long!A27&amp;long!B27,matrix!$J$8:$J$15,0)-1,MATCH(long!C27&amp;long!D27,matrix!$E$17:$H$17,0)-1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28">
-        <f ca="1">OFFSET(matrix!$E$8,MATCH(long!A28&amp;long!B28,matrix!$J$8:$J$15,0)-1,MATCH(long!C28&amp;long!D28,matrix!$E$17:$H$17,0)-1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29">
-        <f ca="1">OFFSET(matrix!$E$8,MATCH(long!A29&amp;long!B29,matrix!$J$8:$J$15,0)-1,MATCH(long!C29&amp;long!D29,matrix!$E$17:$H$17,0)-1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30">
-        <f ca="1">OFFSET(matrix!$E$8,MATCH(long!A30&amp;long!B30,matrix!$J$8:$J$15,0)-1,MATCH(long!C30&amp;long!D30,matrix!$E$17:$H$17,0)-1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31">
-        <f ca="1">OFFSET(matrix!$E$8,MATCH(long!A31&amp;long!B31,matrix!$J$8:$J$15,0)-1,MATCH(long!C31&amp;long!D31,matrix!$E$17:$H$17,0)-1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32">
-        <f ca="1">OFFSET(matrix!$E$8,MATCH(long!A32&amp;long!B32,matrix!$J$8:$J$15,0)-1,MATCH(long!C32&amp;long!D32,matrix!$E$17:$H$17,0)-1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33">
-        <f ca="1">OFFSET(matrix!$E$8,MATCH(long!A33&amp;long!B33,matrix!$J$8:$J$15,0)-1,MATCH(long!C33&amp;long!D33,matrix!$E$17:$H$17,0)-1)</f>
+        <f ca="1">OFFSET(matrix!$E$8,MATCH(long!A17&amp;long!B17,matrix!$H$8:$H$15,0)-1,MATCH(long!C17&amp;long!D17,matrix!$E$17:$F$17,0)-1)</f>
         <v>0</v>
       </c>
     </row>

--- a/simulation/shock.xlsx
+++ b/simulation/shock.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="matrix" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="23">
   <si>
     <t>Final uses</t>
   </si>
@@ -81,7 +81,10 @@
     <t>Value</t>
   </si>
   <si>
-    <t>FU</t>
+    <t>Final consumption expenditure of households</t>
+  </si>
+  <si>
+    <t>FCH</t>
   </si>
 </sst>
 </file>
@@ -662,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,10 +722,10 @@
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="4" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -733,10 +736,10 @@
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -759,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="15" t="str">
-        <f>B8&amp;D8</f>
+        <f t="shared" ref="H8:H15" si="0">B8&amp;D8</f>
         <v>EU27P1</v>
       </c>
       <c r="I8" s="10"/>
@@ -784,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="15" t="str">
-        <f>B9&amp;D9</f>
+        <f t="shared" si="0"/>
         <v>EU27P2</v>
       </c>
       <c r="I9" s="10"/>
@@ -809,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="15" t="str">
-        <f>B10&amp;D10</f>
+        <f t="shared" si="0"/>
         <v>EU27P3</v>
       </c>
       <c r="I10" s="10"/>
@@ -834,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="15" t="str">
-        <f>B11&amp;D11</f>
+        <f t="shared" si="0"/>
         <v>EU27P4</v>
       </c>
       <c r="I11" s="10"/>
@@ -859,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="15" t="str">
-        <f>B12&amp;D12</f>
+        <f t="shared" si="0"/>
         <v>USP1</v>
       </c>
       <c r="I12" s="10"/>
@@ -884,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="15" t="str">
-        <f>B13&amp;D13</f>
+        <f t="shared" si="0"/>
         <v>USP2</v>
       </c>
       <c r="I13" s="10"/>
@@ -909,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="15" t="str">
-        <f>B14&amp;D14</f>
+        <f t="shared" si="0"/>
         <v>USP3</v>
       </c>
       <c r="I14" s="10"/>
@@ -934,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="15" t="str">
-        <f>B15&amp;D15</f>
+        <f t="shared" si="0"/>
         <v>USP4</v>
       </c>
       <c r="I15" s="10"/>
@@ -942,11 +945,11 @@
     <row r="17" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E17" s="14" t="str">
         <f>E5&amp;E7</f>
-        <v>EU27FU</v>
+        <v>EU27FCH</v>
       </c>
       <c r="F17" s="14" t="str">
-        <f t="shared" ref="F17" si="0">F5&amp;F7</f>
-        <v>USFU</v>
+        <f t="shared" ref="F17" si="1">F5&amp;F7</f>
+        <v>USFCH</v>
       </c>
     </row>
     <row r="18" spans="5:9" x14ac:dyDescent="0.25">
@@ -972,8 +975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,7 +1009,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <f ca="1">OFFSET(matrix!$E$8,MATCH(long!A2&amp;long!B2,matrix!$H$8:$H$15,0)-1,MATCH(long!C2&amp;long!D2,matrix!$E$17:$F$17,0)-1)</f>
@@ -1024,7 +1027,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <f ca="1">OFFSET(matrix!$E$8,MATCH(long!A3&amp;long!B3,matrix!$H$8:$H$15,0)-1,MATCH(long!C3&amp;long!D3,matrix!$E$17:$F$17,0)-1)</f>
@@ -1042,7 +1045,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <f ca="1">OFFSET(matrix!$E$8,MATCH(long!A4&amp;long!B4,matrix!$H$8:$H$15,0)-1,MATCH(long!C4&amp;long!D4,matrix!$E$17:$F$17,0)-1)</f>
@@ -1060,7 +1063,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <f ca="1">OFFSET(matrix!$E$8,MATCH(long!A5&amp;long!B5,matrix!$H$8:$H$15,0)-1,MATCH(long!C5&amp;long!D5,matrix!$E$17:$F$17,0)-1)</f>
@@ -1078,7 +1081,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <f ca="1">OFFSET(matrix!$E$8,MATCH(long!A6&amp;long!B6,matrix!$H$8:$H$15,0)-1,MATCH(long!C6&amp;long!D6,matrix!$E$17:$F$17,0)-1)</f>
@@ -1096,7 +1099,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <f ca="1">OFFSET(matrix!$E$8,MATCH(long!A7&amp;long!B7,matrix!$H$8:$H$15,0)-1,MATCH(long!C7&amp;long!D7,matrix!$E$17:$F$17,0)-1)</f>
@@ -1114,7 +1117,7 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <f ca="1">OFFSET(matrix!$E$8,MATCH(long!A8&amp;long!B8,matrix!$H$8:$H$15,0)-1,MATCH(long!C8&amp;long!D8,matrix!$E$17:$F$17,0)-1)</f>
@@ -1132,7 +1135,7 @@
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <f ca="1">OFFSET(matrix!$E$8,MATCH(long!A9&amp;long!B9,matrix!$H$8:$H$15,0)-1,MATCH(long!C9&amp;long!D9,matrix!$E$17:$F$17,0)-1)</f>
@@ -1150,7 +1153,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <f ca="1">OFFSET(matrix!$E$8,MATCH(long!A10&amp;long!B10,matrix!$H$8:$H$15,0)-1,MATCH(long!C10&amp;long!D10,matrix!$E$17:$F$17,0)-1)</f>
@@ -1168,7 +1171,7 @@
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <f ca="1">OFFSET(matrix!$E$8,MATCH(long!A11&amp;long!B11,matrix!$H$8:$H$15,0)-1,MATCH(long!C11&amp;long!D11,matrix!$E$17:$F$17,0)-1)</f>
@@ -1186,7 +1189,7 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <f ca="1">OFFSET(matrix!$E$8,MATCH(long!A12&amp;long!B12,matrix!$H$8:$H$15,0)-1,MATCH(long!C12&amp;long!D12,matrix!$E$17:$F$17,0)-1)</f>
@@ -1204,7 +1207,7 @@
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <f ca="1">OFFSET(matrix!$E$8,MATCH(long!A13&amp;long!B13,matrix!$H$8:$H$15,0)-1,MATCH(long!C13&amp;long!D13,matrix!$E$17:$F$17,0)-1)</f>
@@ -1222,7 +1225,7 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <f ca="1">OFFSET(matrix!$E$8,MATCH(long!A14&amp;long!B14,matrix!$H$8:$H$15,0)-1,MATCH(long!C14&amp;long!D14,matrix!$E$17:$F$17,0)-1)</f>
@@ -1240,7 +1243,7 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <f ca="1">OFFSET(matrix!$E$8,MATCH(long!A15&amp;long!B15,matrix!$H$8:$H$15,0)-1,MATCH(long!C15&amp;long!D15,matrix!$E$17:$F$17,0)-1)</f>
@@ -1258,7 +1261,7 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <f ca="1">OFFSET(matrix!$E$8,MATCH(long!A16&amp;long!B16,matrix!$H$8:$H$15,0)-1,MATCH(long!C16&amp;long!D16,matrix!$E$17:$F$17,0)-1)</f>
@@ -1276,7 +1279,7 @@
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <f ca="1">OFFSET(matrix!$E$8,MATCH(long!A17&amp;long!B17,matrix!$H$8:$H$15,0)-1,MATCH(long!C17&amp;long!D17,matrix!$E$17:$F$17,0)-1)</f>
